--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:49:43+02:00</t>
+    <t>2024-04-11T13:58:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:58:08+02:00</t>
+    <t>2024-04-11T14:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T19:12:23+02:00</t>
+    <t>2024-06-25T19:40:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T19:40:44+02:00</t>
+    <t>2024-06-26T00:37:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T03:07:22+02:00</t>
+    <t>2024-07-01T05:14:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:14:46+02:00</t>
+    <t>2024-07-01T12:11:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:11:43+02:00</t>
+    <t>2024-07-02T15:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>PlanDefinition.id</t>
@@ -301,10 +301,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -420,16 +416,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -522,8 +508,8 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t>ele-1
-inv-0</t>
+    <t xml:space="preserve">inv-0
+</t>
   </si>
   <si>
     <t>PlanDefinition.title</t>
@@ -545,9 +531,6 @@
   </si>
   <si>
     <t>An explanatory or alternate title for the plan definition giving additional information about its content.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>PlanDefinition.type</t>
@@ -563,9 +546,6 @@
     <t>A high-level category for the plan definition that distinguishes the kinds of systems that would be interested in the plan definition.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -772,9 +752,6 @@
     <t>A copyright statement relating to the plan definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the plan definition.</t>
   </si>
   <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
     <t>Consumers must be able to determine any legal restrictions on the use of the plan definition and/or its content.</t>
   </si>
   <si>
@@ -828,10 +805,6 @@
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the plan definition are or are expected to be used instead.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>PlanDefinition.topic</t>
   </si>
   <si>
@@ -921,9 +894,6 @@
     <t>A reference to a Library resource containing any formal logic used by the plan definition.</t>
   </si>
   <si>
-    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal</t>
   </si>
   <si>
@@ -1062,9 +1032,6 @@
     <t>Didactic or other informational resources associated with the goal that provide further supporting information about the goal. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
-    <t>Each related artifact is either an attachment, or a reference to another knowledge resource, but not both.</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal.target</t>
   </si>
   <si>
@@ -1124,19 +1091,6 @@
     <t>Indicates the timeframe after the start of the goal in which the goal should be met.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>Appropriate units for Duration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
-  </si>
-  <si>
     <t>PlanDefinition.action</t>
   </si>
   <si>
@@ -1246,9 +1200,6 @@
   </si>
   <si>
     <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
-  </si>
-  <si>
-    <t>RFC 4122</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
@@ -1280,13 +1231,6 @@
     <t>A description of when the action should be triggered.</t>
   </si>
   <si>
-    <t>If an event is a named-event, it means the event is completely pre-coordinated, and no other information can be specified for the event. If the event is one of the data- events, the data and condition elements specify the triggering criteria. The data element specifies the structured component, and the condition element provides additional optional refinement of that structured component. If the event is periodic, the timing element defines when the event is triggered. For both data- and periodic events, a name can be provided as a shorthand for the formal semantics provided by the other elements.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-trd-3:A named event requires a name, a periodic event requires timing, and a data event requires data {(type = 'named-event' implies name.exists()) and (type = 'periodic' implies timing.exists()) and (type.startsWith('data-') implies data.exists())}trd-2:A condition only if there is a data requirement {condition.exists() implies data.exists()}trd-1:Either timing, or a data requirement, but not both {data.empty() or timing.empty()}</t>
-  </si>
-  <si>
     <t>PlanDefinition.action.condition</t>
   </si>
   <si>
@@ -1340,10 +1284,6 @@
   </si>
   <si>
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-exp-1:An expression or a reference must be provided {expression.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>PlanDefinition.action.input</t>
@@ -2008,7 +1948,7 @@
     <col min="27" max="27" width="56.19140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2434,10 +2374,10 @@
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -2445,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2471,16 +2411,16 @@
         <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2530,7 +2470,7 @@
         <v>22</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2539,10 +2479,10 @@
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -2550,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2576,16 +2516,16 @@
         <v>22</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2611,32 +2551,32 @@
         <v>22</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
@@ -2644,10 +2584,10 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -2655,14 +2595,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -2681,16 +2621,16 @@
         <v>22</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2740,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
@@ -2749,10 +2689,10 @@
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -2760,14 +2700,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2786,16 +2726,16 @@
         <v>22</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2845,7 +2785,7 @@
         <v>22</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -2865,14 +2805,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2891,16 +2831,16 @@
         <v>22</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2938,19 +2878,19 @@
         <v>22</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -2959,10 +2899,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -2970,14 +2910,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2996,19 +2936,19 @@
         <v>22</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>22</v>
@@ -3045,19 +2985,19 @@
         <v>22</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
@@ -3066,10 +3006,10 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -3077,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3103,19 +3043,19 @@
         <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>22</v>
@@ -3164,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
@@ -3173,10 +3113,10 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3124,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3210,19 +3150,19 @@
         <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>22</v>
@@ -3271,7 +3211,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
@@ -3280,10 +3220,10 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -3291,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3317,16 +3257,16 @@
         <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3376,7 +3316,7 @@
         <v>22</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -3385,10 +3325,10 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -3396,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3422,19 +3362,19 @@
         <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>22</v>
@@ -3483,7 +3423,7 @@
         <v>22</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
@@ -3492,10 +3432,10 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -3503,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3529,16 +3469,16 @@
         <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -3588,7 +3528,7 @@
         <v>22</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
@@ -3597,10 +3537,10 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -3608,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3634,17 +3574,15 @@
         <v>22</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>22</v>
@@ -3693,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -3702,10 +3640,10 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -3713,10 +3651,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3739,17 +3677,15 @@
         <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>22</v>
@@ -3774,13 +3710,13 @@
         <v>22</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>22</v>
@@ -3798,7 +3734,7 @@
         <v>22</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
@@ -3807,10 +3743,10 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -3818,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3844,16 +3780,16 @@
         <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3879,13 +3815,13 @@
         <v>22</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>22</v>
@@ -3903,7 +3839,7 @@
         <v>22</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -3912,10 +3848,10 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -3923,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3949,19 +3885,19 @@
         <v>83</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>22</v>
@@ -4010,7 +3946,7 @@
         <v>22</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
@@ -4019,10 +3955,10 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -4030,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4056,13 +3992,13 @@
         <v>22</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4070,7 +4006,7 @@
         <v>22</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>22</v>
@@ -4091,13 +4027,13 @@
         <v>22</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>22</v>
@@ -4115,7 +4051,7 @@
         <v>22</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
@@ -4124,10 +4060,10 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -4135,14 +4071,14 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
@@ -4161,16 +4097,16 @@
         <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -4220,7 +4156,7 @@
         <v>22</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4229,10 +4165,10 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -4240,10 +4176,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4266,19 +4202,19 @@
         <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>22</v>
@@ -4327,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
@@ -4336,10 +4272,10 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -4347,10 +4283,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4373,16 +4309,16 @@
         <v>83</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4432,7 +4368,7 @@
         <v>22</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4441,10 +4377,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -4452,10 +4388,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4478,16 +4414,16 @@
         <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4537,7 +4473,7 @@
         <v>22</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
@@ -4546,10 +4482,10 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4557,10 +4493,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4583,19 +4519,19 @@
         <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>22</v>
@@ -4644,7 +4580,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
@@ -4653,10 +4589,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -4664,10 +4600,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4690,16 +4626,16 @@
         <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -4725,13 +4661,13 @@
         <v>22</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>22</v>
@@ -4749,7 +4685,7 @@
         <v>22</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
@@ -4758,10 +4694,10 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -4769,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4795,16 +4731,16 @@
         <v>22</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4854,7 +4790,7 @@
         <v>22</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -4863,10 +4799,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -4874,10 +4810,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4900,17 +4836,15 @@
         <v>22</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>22</v>
@@ -4959,7 +4893,7 @@
         <v>22</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
@@ -4968,10 +4902,10 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -4979,14 +4913,14 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
@@ -5005,19 +4939,17 @@
         <v>22</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>22</v>
@@ -5066,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5007,10 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -5086,10 +5018,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5112,16 +5044,16 @@
         <v>22</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -5171,7 +5103,7 @@
         <v>22</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
@@ -5180,10 +5112,10 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -5191,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5217,19 +5149,19 @@
         <v>22</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="P31" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>22</v>
@@ -5278,7 +5210,7 @@
         <v>22</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
@@ -5287,10 +5219,10 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -5298,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5324,19 +5256,19 @@
         <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q32" t="s" s="2">
         <v>22</v>
@@ -5385,7 +5317,7 @@
         <v>22</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
@@ -5394,10 +5326,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -5405,10 +5337,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5431,19 +5363,17 @@
         <v>22</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>22</v>
@@ -5468,13 +5398,13 @@
         <v>22</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>22</v>
@@ -5492,7 +5422,7 @@
         <v>22</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
@@ -5501,10 +5431,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -5512,10 +5442,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5538,13 +5468,13 @@
         <v>22</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5595,7 +5525,7 @@
         <v>22</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5604,10 +5534,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5615,10 +5545,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5641,13 +5571,13 @@
         <v>22</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5698,7 +5628,7 @@
         <v>22</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
@@ -5707,10 +5637,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -5718,10 +5648,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5744,13 +5674,13 @@
         <v>22</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5801,7 +5731,7 @@
         <v>22</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
@@ -5810,10 +5740,10 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -5821,10 +5751,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5847,13 +5777,13 @@
         <v>22</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5904,7 +5834,7 @@
         <v>22</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
@@ -5913,10 +5843,10 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -5924,10 +5854,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5950,19 +5880,19 @@
         <v>22</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>22</v>
@@ -6011,7 +5941,7 @@
         <v>22</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
@@ -6020,10 +5950,10 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -6031,10 +5961,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6057,17 +5987,15 @@
         <v>22</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>22</v>
@@ -6116,7 +6044,7 @@
         <v>22</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
@@ -6125,10 +6053,10 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -6136,10 +6064,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6162,17 +6090,17 @@
         <v>22</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>22</v>
@@ -6221,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
@@ -6230,10 +6158,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -6241,10 +6169,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6267,13 +6195,13 @@
         <v>22</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6324,7 +6252,7 @@
         <v>22</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
@@ -6344,14 +6272,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6370,16 +6298,16 @@
         <v>22</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6417,19 +6345,19 @@
         <v>22</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
@@ -6438,10 +6366,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
@@ -6449,14 +6377,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6475,19 +6403,19 @@
         <v>83</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>22</v>
@@ -6536,7 +6464,7 @@
         <v>22</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -6545,10 +6473,10 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -6556,10 +6484,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6582,17 +6510,15 @@
         <v>22</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>22</v>
@@ -6617,13 +6543,13 @@
         <v>22</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>22</v>
@@ -6641,7 +6567,7 @@
         <v>22</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
@@ -6650,10 +6576,10 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="45">
@@ -6661,10 +6587,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6687,16 +6613,16 @@
         <v>22</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6722,13 +6648,13 @@
         <v>22</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>22</v>
@@ -6746,7 +6672,7 @@
         <v>22</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
@@ -6755,10 +6681,10 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="46">
@@ -6766,10 +6692,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6792,17 +6718,15 @@
         <v>22</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>22</v>
@@ -6827,13 +6751,13 @@
         <v>22</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>22</v>
@@ -6851,7 +6775,7 @@
         <v>22</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6784,10 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="47">
@@ -6871,10 +6795,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6897,17 +6821,15 @@
         <v>22</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>22</v>
@@ -6932,13 +6854,13 @@
         <v>22</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>22</v>
@@ -6956,7 +6878,7 @@
         <v>22</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6965,10 +6887,10 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -6976,10 +6898,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7002,17 +6924,15 @@
         <v>22</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>22</v>
@@ -7037,11 +6957,11 @@
         <v>22</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>22</v>
@@ -7059,7 +6979,7 @@
         <v>22</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -7068,10 +6988,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="49">
@@ -7079,10 +6999,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7105,17 +7025,15 @@
         <v>22</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>22</v>
@@ -7164,7 +7082,7 @@
         <v>22</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
@@ -7173,10 +7091,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="50">
@@ -7184,10 +7102,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7210,13 +7128,13 @@
         <v>22</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7267,7 +7185,7 @@
         <v>22</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
@@ -7276,10 +7194,10 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -7287,10 +7205,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7313,13 +7231,13 @@
         <v>22</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7370,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
@@ -7390,14 +7308,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7416,16 +7334,16 @@
         <v>22</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7463,19 +7381,19 @@
         <v>22</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
@@ -7484,10 +7402,10 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -7495,14 +7413,14 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
@@ -7521,19 +7439,19 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>22</v>
@@ -7582,7 +7500,7 @@
         <v>22</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
@@ -7591,10 +7509,10 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -7602,10 +7520,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7628,17 +7546,15 @@
         <v>22</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>22</v>
@@ -7663,13 +7579,13 @@
         <v>22</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AB54" t="s" s="2">
         <v>22</v>
@@ -7687,7 +7603,7 @@
         <v>22</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
@@ -7696,10 +7612,10 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -7707,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7733,13 +7649,13 @@
         <v>22</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -7790,7 +7706,7 @@
         <v>22</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
@@ -7799,10 +7715,10 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="56">
@@ -7810,10 +7726,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7836,17 +7752,15 @@
         <v>22</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>22</v>
@@ -7871,13 +7785,13 @@
         <v>22</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>22</v>
@@ -7895,7 +7809,7 @@
         <v>22</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
@@ -7904,10 +7818,10 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="57">
@@ -7915,10 +7829,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7941,16 +7855,16 @@
         <v>22</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8000,7 +7914,7 @@
         <v>22</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
@@ -8009,10 +7923,10 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="58">
@@ -8020,10 +7934,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8046,13 +7960,13 @@
         <v>22</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8103,7 +8017,7 @@
         <v>22</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -8123,14 +8037,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8149,16 +8063,16 @@
         <v>22</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -8196,19 +8110,19 @@
         <v>22</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>75</v>
@@ -8217,10 +8131,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -8228,14 +8142,14 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
@@ -8254,19 +8168,19 @@
         <v>83</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>22</v>
@@ -8315,7 +8229,7 @@
         <v>22</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
@@ -8324,10 +8238,10 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -8335,10 +8249,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8361,17 +8275,15 @@
         <v>22</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>22</v>
@@ -8420,7 +8332,7 @@
         <v>22</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
@@ -8429,10 +8341,10 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="62">
@@ -8440,10 +8352,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8466,17 +8378,15 @@
         <v>22</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>22</v>
@@ -8525,7 +8435,7 @@
         <v>22</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
@@ -8534,10 +8444,10 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -8545,10 +8455,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8571,17 +8481,15 @@
         <v>22</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>22</v>
@@ -8630,7 +8538,7 @@
         <v>22</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -8639,10 +8547,10 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="64">
@@ -8650,10 +8558,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8676,17 +8584,15 @@
         <v>22</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>22</v>
@@ -8735,7 +8641,7 @@
         <v>22</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
@@ -8744,10 +8650,10 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="65">
@@ -8755,10 +8661,10 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8781,17 +8687,15 @@
         <v>22</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>22</v>
@@ -8816,13 +8720,13 @@
         <v>22</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>22</v>
@@ -8840,7 +8744,7 @@
         <v>22</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
@@ -8849,10 +8753,10 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="66">
@@ -8860,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8886,17 +8790,15 @@
         <v>22</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>22</v>
@@ -8945,7 +8847,7 @@
         <v>22</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
@@ -8954,10 +8856,10 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="67">
@@ -8965,10 +8867,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8991,16 +8893,16 @@
         <v>22</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9050,7 +8952,7 @@
         <v>22</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
@@ -9059,10 +8961,10 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="68">
@@ -9070,10 +8972,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9096,17 +8998,15 @@
         <v>22</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>22</v>
@@ -9155,7 +9055,7 @@
         <v>22</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
@@ -9164,10 +9064,10 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="69">
@@ -9175,10 +9075,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9204,14 +9104,12 @@
         <v>84</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>22</v>
@@ -9260,7 +9158,7 @@
         <v>22</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>75</v>
@@ -9269,10 +9167,10 @@
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="70">
@@ -9280,10 +9178,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9306,25 +9204,25 @@
         <v>22</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="P70" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="Q70" t="s" s="2">
         <v>22</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>22</v>
@@ -9345,13 +9243,13 @@
         <v>22</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>22</v>
@@ -9369,7 +9267,7 @@
         <v>22</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
@@ -9378,10 +9276,10 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -9389,10 +9287,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9415,17 +9313,15 @@
         <v>22</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>22</v>
@@ -9474,7 +9370,7 @@
         <v>22</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
@@ -9483,10 +9379,10 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="72">
@@ -9494,10 +9390,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9520,16 +9416,16 @@
         <v>22</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
@@ -9579,7 +9475,7 @@
         <v>22</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>75</v>
@@ -9588,10 +9484,10 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -9599,10 +9495,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9625,13 +9521,13 @@
         <v>22</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9682,7 +9578,7 @@
         <v>22</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
@@ -9702,14 +9598,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -9728,16 +9624,16 @@
         <v>22</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -9775,19 +9671,19 @@
         <v>22</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
@@ -9796,10 +9692,10 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
@@ -9807,14 +9703,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -9833,19 +9729,19 @@
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>22</v>
@@ -9894,7 +9790,7 @@
         <v>22</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -9903,10 +9799,10 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -9914,10 +9810,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9940,16 +9836,16 @@
         <v>22</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -9975,13 +9871,13 @@
         <v>22</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>22</v>
@@ -9999,7 +9895,7 @@
         <v>22</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>82</v>
@@ -10008,10 +9904,10 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="77">
@@ -10019,10 +9915,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10045,16 +9941,16 @@
         <v>22</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10104,7 +10000,7 @@
         <v>22</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -10113,10 +10009,10 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="78">
@@ -10124,10 +10020,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10150,13 +10046,13 @@
         <v>22</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10207,7 +10103,7 @@
         <v>22</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
@@ -10216,10 +10112,10 @@
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="79">
@@ -10227,10 +10123,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10253,13 +10149,13 @@
         <v>22</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10310,7 +10206,7 @@
         <v>22</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
@@ -10319,10 +10215,10 @@
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="80">
@@ -10330,10 +10226,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10356,16 +10252,16 @@
         <v>22</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10415,7 +10311,7 @@
         <v>22</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
@@ -10424,10 +10320,10 @@
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="81">
@@ -10435,10 +10331,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10461,13 +10357,13 @@
         <v>22</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10518,7 +10414,7 @@
         <v>22</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10538,14 +10434,14 @@
         <v>3</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -10564,16 +10460,16 @@
         <v>22</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10611,19 +10507,19 @@
         <v>22</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
@@ -10632,10 +10528,10 @@
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
@@ -10643,14 +10539,14 @@
         <v>3</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
@@ -10669,19 +10565,19 @@
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P83" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>22</v>
@@ -10730,7 +10626,7 @@
         <v>22</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -10739,10 +10635,10 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
@@ -10750,10 +10646,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10779,14 +10675,12 @@
         <v>84</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>22</v>
@@ -10835,7 +10729,7 @@
         <v>22</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>82</v>
@@ -10844,10 +10738,10 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -10855,10 +10749,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10881,17 +10775,15 @@
         <v>22</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>22</v>
@@ -10916,13 +10808,13 @@
         <v>22</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>22</v>
@@ -10940,7 +10832,7 @@
         <v>22</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>82</v>
@@ -10949,10 +10841,10 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="86">
@@ -10960,10 +10852,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10986,13 +10878,13 @@
         <v>22</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -11043,7 +10935,7 @@
         <v>22</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
@@ -11052,10 +10944,10 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="87">
@@ -11063,10 +10955,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11089,13 +10981,13 @@
         <v>22</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11146,7 +11038,7 @@
         <v>22</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
@@ -11155,10 +11047,10 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="88">
@@ -11166,10 +11058,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11192,13 +11084,13 @@
         <v>22</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -11249,7 +11141,7 @@
         <v>22</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
@@ -11258,10 +11150,10 @@
         <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="89">
@@ -11269,10 +11161,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11295,13 +11187,13 @@
         <v>22</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11352,7 +11244,7 @@
         <v>22</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
@@ -11372,14 +11264,14 @@
         <v>3</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11398,16 +11290,16 @@
         <v>22</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N90" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11445,19 +11337,19 @@
         <v>22</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11466,10 +11358,10 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
@@ -11477,14 +11369,14 @@
         <v>3</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
@@ -11503,19 +11395,19 @@
         <v>83</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P91" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>22</v>
@@ -11564,7 +11456,7 @@
         <v>22</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -11573,10 +11465,10 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -11584,10 +11476,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11610,17 +11502,15 @@
         <v>22</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>22</v>
@@ -11645,13 +11535,13 @@
         <v>22</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>22</v>
@@ -11669,7 +11559,7 @@
         <v>22</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>82</v>
@@ -11678,10 +11568,10 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="93">
@@ -11689,10 +11579,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11715,17 +11605,15 @@
         <v>22</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>22</v>
@@ -11750,13 +11638,13 @@
         <v>22</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>22</v>
@@ -11774,7 +11662,7 @@
         <v>22</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -11783,10 +11671,10 @@
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -11794,10 +11682,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11820,17 +11708,15 @@
         <v>22</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>22</v>
@@ -11855,13 +11741,13 @@
         <v>22</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>22</v>
@@ -11879,7 +11765,7 @@
         <v>22</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -11888,10 +11774,10 @@
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -11899,10 +11785,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -11925,17 +11811,15 @@
         <v>22</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>22</v>
@@ -11960,13 +11844,13 @@
         <v>22</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>22</v>
@@ -11984,7 +11868,7 @@
         <v>22</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
@@ -11993,10 +11877,10 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -12004,10 +11888,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12030,17 +11914,15 @@
         <v>22</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>22</v>
@@ -12065,13 +11947,13 @@
         <v>22</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="AB96" t="s" s="2">
         <v>22</v>
@@ -12089,7 +11971,7 @@
         <v>22</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -12098,10 +11980,10 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -12109,10 +11991,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12135,17 +12017,15 @@
         <v>22</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>22</v>
@@ -12170,13 +12050,13 @@
         <v>22</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>22</v>
@@ -12194,7 +12074,7 @@
         <v>22</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
@@ -12203,10 +12083,10 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="98">
@@ -12214,10 +12094,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12240,17 +12120,15 @@
         <v>22</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>22</v>
@@ -12275,13 +12153,13 @@
         <v>22</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>22</v>
@@ -12299,7 +12177,7 @@
         <v>22</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
@@ -12308,10 +12186,10 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="99">
@@ -12319,10 +12197,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12345,17 +12223,15 @@
         <v>22</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>22</v>
@@ -12380,13 +12256,13 @@
         <v>22</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>22</v>
@@ -12404,7 +12280,7 @@
         <v>22</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
@@ -12413,10 +12289,10 @@
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="100">
@@ -12424,10 +12300,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12450,16 +12326,16 @@
         <v>22</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -12509,7 +12385,7 @@
         <v>22</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
@@ -12518,10 +12394,10 @@
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="101">
@@ -12529,10 +12405,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12555,16 +12431,16 @@
         <v>22</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12614,7 +12490,7 @@
         <v>22</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -12623,10 +12499,10 @@
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="102">
@@ -12634,10 +12510,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12660,16 +12536,16 @@
         <v>22</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12719,7 +12595,7 @@
         <v>22</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
@@ -12728,10 +12604,10 @@
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="103">
@@ -12739,10 +12615,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12765,13 +12641,13 @@
         <v>22</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -12822,7 +12698,7 @@
         <v>22</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
@@ -12842,14 +12718,14 @@
         <v>3</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -12868,16 +12744,16 @@
         <v>22</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="N104" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -12915,19 +12791,19 @@
         <v>22</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="AE104" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>75</v>
@@ -12936,10 +12812,10 @@
         <v>76</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
@@ -12947,14 +12823,14 @@
         <v>3</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -12973,19 +12849,19 @@
         <v>83</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P105" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>22</v>
@@ -13034,7 +12910,7 @@
         <v>22</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>75</v>
@@ -13043,10 +12919,10 @@
         <v>76</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -13054,10 +12930,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13080,16 +12956,16 @@
         <v>22</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13139,7 +13015,7 @@
         <v>22</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
@@ -13148,10 +13024,10 @@
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="107">
@@ -13159,10 +13035,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13185,16 +13061,16 @@
         <v>22</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13244,7 +13120,7 @@
         <v>22</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>75</v>
@@ -13253,10 +13129,10 @@
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="108">
@@ -13264,10 +13140,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13293,10 +13169,10 @@
         <v>77</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -13347,7 +13223,7 @@
         <v>22</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>75</v>
@@ -13359,7 +13235,7 @@
         <v>22</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
